--- a/AssignmentV2/Results/InvestmentResults.xlsx
+++ b/AssignmentV2/Results/InvestmentResults.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,175 +434,223 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Technology</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Invested capacity (MW)</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>Coal</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Coal</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>Coal</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Gas</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Coal</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Wind</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Wind</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>PV</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Gas</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Coal</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>Wind</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Wind</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>PV</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Wind</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>Gas</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>Coal</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Wind</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Wind</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>PV</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Wind</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Gas</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Coal</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>200</v>
+      <c r="C17" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
